--- a/Excel/WeaponConfig.xlsx
+++ b/Excel/WeaponConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26145" windowHeight="17655"/>
+    <workbookView windowWidth="21000" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>int</t>
   </si>
@@ -54,6 +54,12 @@
     <t>equipmentCameraOffset</t>
   </si>
   <si>
+    <t>resourcesId</t>
+  </si>
+  <si>
+    <t>useClass</t>
+  </si>
+  <si>
     <t>equipmentCameraFov</t>
   </si>
   <si>
@@ -141,6 +147,12 @@
     <t>装备视角偏移</t>
   </si>
   <si>
+    <t>枪械使用资产ID</t>
+  </si>
+  <si>
+    <t>枪械类</t>
+  </si>
+  <si>
     <t>FOV</t>
   </si>
   <si>
@@ -214,6 +226,9 @@
   </si>
   <si>
     <t>0|0|0</t>
+  </si>
+  <si>
+    <t>Sniper</t>
   </si>
 </sst>
 </file>
@@ -1144,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1157,30 +1172,30 @@
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="10.375" customWidth="1"/>
-    <col min="15" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="13.75" customWidth="1"/>
+    <col min="7" max="9" width="23.75" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="14" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="18" width="13.75" customWidth="1"/>
     <col min="19" max="19" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="12.625" customWidth="1"/>
-    <col min="21" max="21" width="20.375" customWidth="1"/>
-    <col min="22" max="22" width="19.375" customWidth="1"/>
-    <col min="23" max="23" width="20.625" customWidth="1"/>
-    <col min="24" max="24" width="21.25" customWidth="1"/>
-    <col min="25" max="25" width="18.25" customWidth="1"/>
-    <col min="26" max="26" width="12.875" customWidth="1"/>
-    <col min="27" max="27" width="30.875" customWidth="1"/>
-    <col min="28" max="28" width="19.375" customWidth="1"/>
-    <col min="29" max="29" width="14.875" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="23" max="23" width="20.375" customWidth="1"/>
+    <col min="24" max="24" width="19.375" customWidth="1"/>
+    <col min="25" max="25" width="20.625" customWidth="1"/>
+    <col min="26" max="26" width="21.25" customWidth="1"/>
+    <col min="27" max="27" width="18.25" customWidth="1"/>
+    <col min="28" max="28" width="12.875" customWidth="1"/>
+    <col min="29" max="29" width="30.875" customWidth="1"/>
+    <col min="30" max="30" width="19.375" customWidth="1"/>
+    <col min="31" max="31" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1206,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -1227,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="s">
         <v>0</v>
       </c>
       <c r="R1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T1" t="s">
         <v>4</v>
@@ -1245,31 +1260,37 @@
         <v>4</v>
       </c>
       <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>0</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1357,102 +1378,114 @@
       <c r="AC2" t="s">
         <v>33</v>
       </c>
+      <c r="AD2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC3" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1464,26 +1497,26 @@
         <v>23234</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4">
         <v>90</v>
       </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4">
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4">
         <v>60</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
         <v>1</v>
       </c>
@@ -1494,14 +1527,14 @@
         <v>1</v>
       </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>10</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
         <v>1</v>
       </c>
@@ -1515,24 +1548,30 @@
         <v>1</v>
       </c>
       <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
         <v>12</v>
       </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
       <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
         <v>12</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>12</v>
       </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
         <v>1</v>
       </c>
     </row>

--- a/Excel/WeaponConfig.xlsx
+++ b/Excel/WeaponConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>自动销毁</t>
   </si>
   <si>
-    <t>测试手枪</t>
+    <t>测试步枪</t>
   </si>
   <si>
     <t>Right_Hand</t>
@@ -1161,8 +1161,8 @@
   <sheetPr/>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>23234</v>
+        <v>101168</v>
       </c>
       <c r="F4" t="s">
         <v>68</v>
@@ -1518,22 +1518,22 @@
         <v>60</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1554,22 +1554,22 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="AC4">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>1</v>

--- a/Excel/WeaponConfig.xlsx
+++ b/Excel/WeaponConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="21000" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,158 +703,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -900,7 +903,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -910,9 +913,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -944,15 +947,15 @@
         <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,132 +1025,167 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1158,44 +1196,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AE4"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="9" width="23.75" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
-    <col min="12" max="12" width="13.75" customWidth="1"/>
-    <col min="13" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="10.375" customWidth="1"/>
-    <col min="17" max="18" width="13.75" customWidth="1"/>
-    <col min="19" max="19" width="11.5" customWidth="1"/>
-    <col min="20" max="20" width="13.75" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
-    <col min="23" max="23" width="20.375" customWidth="1"/>
-    <col min="24" max="24" width="19.375" customWidth="1"/>
-    <col min="25" max="25" width="20.625" customWidth="1"/>
-    <col min="26" max="26" width="21.25" customWidth="1"/>
-    <col min="27" max="27" width="18.25" customWidth="1"/>
-    <col min="28" max="28" width="12.875" customWidth="1"/>
-    <col min="29" max="29" width="30.875" customWidth="1"/>
-    <col min="30" max="30" width="19.375" customWidth="1"/>
-    <col min="31" max="31" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="7.15" customWidth="1"/>
+    <col min="2" max="2" width="8.85833333333333" customWidth="1"/>
+    <col min="3" max="4" width="12.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.575" customWidth="1"/>
+    <col min="6" max="6" width="14.8583333333333" customWidth="1"/>
+    <col min="7" max="9" width="23.7166666666667" customWidth="1"/>
+    <col min="10" max="10" width="20.4333333333333" customWidth="1"/>
+    <col min="11" max="11" width="17.15" customWidth="1"/>
+    <col min="12" max="12" width="13.7166666666667" customWidth="1"/>
+    <col min="13" max="14" width="12.8583333333333" customWidth="1"/>
+    <col min="15" max="15" width="11.575" customWidth="1"/>
+    <col min="16" max="16" width="10.4333333333333" customWidth="1"/>
+    <col min="17" max="18" width="13.7166666666667" customWidth="1"/>
+    <col min="19" max="19" width="11.575" customWidth="1"/>
+    <col min="20" max="20" width="13.7166666666667" customWidth="1"/>
+    <col min="21" max="21" width="11.575" customWidth="1"/>
+    <col min="22" max="22" width="12.575" customWidth="1"/>
+    <col min="23" max="23" width="20.4333333333333" customWidth="1"/>
+    <col min="24" max="24" width="19.4333333333333" customWidth="1"/>
+    <col min="25" max="25" width="20.575" customWidth="1"/>
+    <col min="26" max="26" width="21.2916666666667" customWidth="1"/>
+    <col min="27" max="27" width="18.2916666666667" customWidth="1"/>
+    <col min="28" max="28" width="12.8583333333333" customWidth="1"/>
+    <col min="29" max="29" width="30.8583333333333" customWidth="1"/>
+    <col min="30" max="30" width="19.4333333333333" customWidth="1"/>
+    <col min="31" max="31" width="14.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" ht="19.5" customHeight="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" ht="19.5" customHeight="1" spans="1:31">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" ht="21" customHeight="1" spans="1:31">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1480,111 +1520,113 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4">
+    <row r="4" ht="19.5" customHeight="1"/>
+    <row r="5" ht="18.75" customHeight="1" spans="1:31">
+      <c r="A5">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>101168</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>90</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>60</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>90</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>30</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>5000</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>10000</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="V5">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>1</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <v>100</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>1</v>
       </c>
-      <c r="AB4">
+      <c r="AB5">
         <v>90</v>
       </c>
-      <c r="AC4">
+      <c r="AC5">
         <v>-1</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1594,14 +1636,15 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1611,7 +1654,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>